--- a/results/150514-X09.1-1506-2015-German_Championships_(Open)-Pairs.xlsx
+++ b/results/150514-X09.1-1506-2015-German_Championships_(Open)-Pairs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolja\Desktop\Frisbee\Rankings\Turniere-berechnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAFFB9D-3F68-40A0-8C39-C8CDFE226B84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13305" windowHeight="11055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13305" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X08.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">X08.1!#REF!</definedName>
-    <definedName name="Print_Area" localSheetId="0">X08.1!$A$1:$O$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'X08.1'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'X08.1'!$A$1:$O$106</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,14 +29,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
     <author>Kolja Hannemann</author>
     <author>Kolja</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0">
+    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="2" shapeId="0">
+    <comment ref="G16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="2" shapeId="0">
+    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="2" shapeId="0">
+    <comment ref="L16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="2" shapeId="0">
+    <comment ref="M16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P17" authorId="2" shapeId="0">
+    <comment ref="P17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="2" shapeId="0">
+    <comment ref="Q17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="2" shapeId="0">
+    <comment ref="R17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0" shapeId="0">
+    <comment ref="F43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="0" shapeId="0">
+    <comment ref="H43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -424,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="0" shapeId="0">
+    <comment ref="B77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F77" authorId="0" shapeId="0">
+    <comment ref="F77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -451,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H77" authorId="0" shapeId="0">
+    <comment ref="H77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="1" shapeId="0">
+    <comment ref="E78" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -736,9 +737,6 @@
     <t>Place:</t>
   </si>
   <si>
-    <t>14.-17.05.2015</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -758,12 +756,15 @@
   </si>
   <si>
     <t>Event:</t>
+  </si>
+  <si>
+    <t>14.05.2015-17.05.2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1770,10 +1771,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1825,10 +1822,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1871,10 +1864,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1933,18 +1922,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
@@ -1975,18 +1952,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2064,112 +2029,16 @@
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2221,142 +2090,274 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2641,17 +2642,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Y106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA97" sqref="AA97"/>
+      <selection activeCell="I4" sqref="I4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -2678,69 +2679,69 @@
   <sheetData>
     <row r="1" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="1"/>
+      <c r="T2" s="104"/>
+    </row>
+    <row r="3" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="1"/>
+      <c r="T3" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="171" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="1"/>
-      <c r="T2" s="137"/>
-    </row>
-    <row r="3" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="1"/>
-      <c r="T3" s="137" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="158" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="159"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="123"/>
       <c r="N4" s="1"/>
-      <c r="T4" s="137">
+      <c r="T4" s="104">
         <v>2</v>
       </c>
       <c r="U4" s="3">
@@ -2748,72 +2749,72 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="150" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="148"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="125"/>
       <c r="N5" s="1"/>
-      <c r="T5" s="137"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:24" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="165">
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="126">
         <v>36</v>
       </c>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="163"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="128"/>
       <c r="N6" s="1"/>
-      <c r="T6" s="137" t="s">
+      <c r="T6" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="U6" s="162">
+      <c r="U6" s="112">
         <v>8</v>
       </c>
-      <c r="V6" s="162"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="161"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
     </row>
     <row r="7" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="160">
-        <v>1</v>
-      </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="148"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="135">
+        <v>1</v>
+      </c>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="125"/>
       <c r="N7" s="1"/>
-      <c r="T7" s="137" t="s">
+      <c r="T7" s="104" t="s">
         <v>74</v>
       </c>
       <c r="U7" s="3">
@@ -2821,199 +2822,199 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="156" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154" t="s">
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="159"/>
+      <c r="M8" s="123"/>
       <c r="N8" s="1"/>
-      <c r="T8" s="137" t="s">
+      <c r="T8" s="104" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="149" t="s">
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="148"/>
+      <c r="M9" s="125"/>
       <c r="N9" s="1"/>
-      <c r="T9" s="137" t="s">
+      <c r="T9" s="104" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="153"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="138"/>
       <c r="N10" s="1"/>
-      <c r="T10" s="137"/>
+      <c r="T10" s="104"/>
     </row>
     <row r="11" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="150">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="118">
         <v>1506</v>
       </c>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="148"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="125"/>
       <c r="N11" s="1"/>
-      <c r="T11" s="137"/>
+      <c r="T11" s="104"/>
     </row>
     <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="145">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="139">
         <v>1706</v>
       </c>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="143"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="141"/>
       <c r="N12" s="1"/>
-      <c r="T12" s="137"/>
+      <c r="T12" s="104"/>
     </row>
     <row r="13" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="142"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="138"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="134"/>
       <c r="N13" s="1"/>
-      <c r="T13" s="137"/>
+      <c r="T13" s="104"/>
     </row>
     <row r="14" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-    </row>
-    <row r="15" spans="1:24" s="78" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="135" t="s">
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+    </row>
+    <row r="15" spans="1:24" s="69" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="134" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="79"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="70"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="152"/>
       <c r="S15" s="4">
         <v>8</v>
       </c>
-      <c r="T15" s="133"/>
-      <c r="U15" s="133"/>
-      <c r="V15" s="133"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
+      <c r="T15" s="100"/>
+      <c r="U15" s="100"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
     </row>
     <row r="16" spans="1:24" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="72" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="71" t="s">
+      <c r="G16" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="69" t="s">
+      <c r="I16" s="55"/>
+      <c r="J16" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="68" t="s">
+      <c r="K16" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="67" t="s">
+      <c r="M16" s="61" t="s">
         <v>29</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="P16" s="66" t="s">
+      <c r="P16" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="64"/>
-      <c r="T16" s="96" t="s">
+      <c r="Q16" s="169"/>
+      <c r="R16" s="170"/>
+      <c r="T16" s="87" t="s">
         <v>64</v>
       </c>
       <c r="U16" s="3" t="s">
@@ -3021,28 +3022,28 @@
       </c>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="54"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="52" t="s">
+      <c r="Q17" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="51" t="s">
+      <c r="R17" s="48" t="s">
         <v>25</v>
       </c>
       <c r="S17" s="4"/>
@@ -3054,49 +3055,49 @@
     </row>
     <row r="18" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="47">
-        <v>1</v>
-      </c>
-      <c r="C18" s="46">
-        <v>1</v>
-      </c>
-      <c r="D18" s="46">
-        <v>1</v>
-      </c>
-      <c r="E18" s="44" t="s">
+      <c r="B18" s="129">
+        <v>1</v>
+      </c>
+      <c r="C18" s="44">
+        <v>1</v>
+      </c>
+      <c r="D18" s="44">
+        <v>1</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="40">
         <v>6</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="39">
         <v>7.5</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="40">
+      <c r="J18" s="38">
         <v>125</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="37">
         <v>15</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="36">
         <v>40</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="35">
         <v>180</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="50" t="s">
+      <c r="P18" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="49">
+      <c r="Q18" s="46">
         <v>90</v>
       </c>
-      <c r="R18" s="48" t="s">
+      <c r="R18" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S18" s="4" t="s">
@@ -3113,47 +3114,47 @@
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="34">
-        <v>1</v>
-      </c>
-      <c r="D19" s="34">
-        <v>1</v>
-      </c>
-      <c r="E19" s="32" t="s">
+      <c r="B19" s="130"/>
+      <c r="C19" s="33">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33">
+        <v>1</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>10</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="28">
         <v>7.5</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="28">
+      <c r="J19" s="27">
         <v>125</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="26">
         <v>15</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="25">
         <v>40</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="24">
         <v>180</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="131" t="s">
+      <c r="P19" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="Q19" s="130">
+      <c r="Q19" s="97">
         <v>90</v>
       </c>
-      <c r="R19" s="129" t="s">
+      <c r="R19" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -3170,7 +3171,7 @@
     </row>
     <row r="20" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="19">
         <v>1</v>
       </c>
@@ -3202,13 +3203,13 @@
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="48" t="s">
+      <c r="P20" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S20" s="4" t="s">
@@ -3225,49 +3226,49 @@
     </row>
     <row r="21" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="47">
-        <v>2</v>
-      </c>
-      <c r="C21" s="46">
-        <v>2</v>
-      </c>
-      <c r="D21" s="46">
-        <v>2</v>
-      </c>
-      <c r="E21" s="44" t="s">
+      <c r="B21" s="129">
+        <v>2</v>
+      </c>
+      <c r="C21" s="44">
+        <v>2</v>
+      </c>
+      <c r="D21" s="44">
+        <v>2</v>
+      </c>
+      <c r="E21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="40">
         <v>22</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="39">
         <v>2.5</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="40">
+      <c r="J21" s="38">
         <v>100</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="37">
         <v>12.5</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="36">
         <v>32.5</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="35">
         <v>145</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="131" t="s">
+      <c r="P21" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="130">
+      <c r="Q21" s="97">
         <v>72.5</v>
       </c>
-      <c r="R21" s="129" t="s">
+      <c r="R21" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S21" s="4" t="s">
@@ -3284,47 +3285,47 @@
     </row>
     <row r="22" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="34">
-        <v>2</v>
-      </c>
-      <c r="D22" s="34">
-        <v>2</v>
-      </c>
-      <c r="E22" s="32" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="33">
+        <v>2</v>
+      </c>
+      <c r="D22" s="33">
+        <v>2</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>19</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="28">
         <v>5</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="28">
+      <c r="J22" s="27">
         <v>100</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="26">
         <v>12.5</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="25">
         <v>32.5</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="24">
         <v>145</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="50" t="s">
+      <c r="P22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Q22" s="49">
+      <c r="Q22" s="46">
         <v>72.5</v>
       </c>
-      <c r="R22" s="48" t="s">
+      <c r="R22" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S22" s="4" t="s">
@@ -3341,7 +3342,7 @@
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="19">
         <v>2</v>
       </c>
@@ -3373,13 +3374,13 @@
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="131" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="129" t="s">
+      <c r="P23" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S23" s="4" t="s">
@@ -3396,49 +3397,49 @@
     </row>
     <row r="24" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="47">
+      <c r="B24" s="129">
         <v>3</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="44">
         <v>3</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="44">
         <v>3</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="40">
         <v>9</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="39">
         <v>7.5</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="40">
+      <c r="J24" s="38">
         <v>80</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="37">
         <v>12.5</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <v>22.5</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="35">
         <v>115</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="50" t="s">
+      <c r="P24" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="49">
+      <c r="Q24" s="46">
         <v>57.5</v>
       </c>
-      <c r="R24" s="48" t="s">
+      <c r="R24" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S24" s="4" t="s">
@@ -3455,47 +3456,47 @@
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="34">
+      <c r="B25" s="130"/>
+      <c r="C25" s="33">
         <v>3</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <v>3</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <v>48</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="28">
         <v>2.5</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="28">
+      <c r="J25" s="27">
         <v>80</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="26">
         <v>12.5</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="25">
         <v>22.5</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="24">
         <v>115</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="131" t="s">
+      <c r="P25" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="Q25" s="130">
+      <c r="Q25" s="97">
         <v>57.5</v>
       </c>
-      <c r="R25" s="129" t="s">
+      <c r="R25" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S25" s="4" t="s">
@@ -3512,7 +3513,7 @@
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="19">
         <v>3</v>
       </c>
@@ -3544,13 +3545,13 @@
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="R26" s="48" t="s">
+      <c r="P26" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S26" s="4" t="s">
@@ -3567,49 +3568,49 @@
     </row>
     <row r="27" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="47">
+      <c r="B27" s="129">
         <v>4</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="44">
         <v>4</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="44">
         <v>4</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="40">
         <v>184</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="39">
         <v>0.5</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="40">
+      <c r="J27" s="38">
         <v>70</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="37">
         <v>12.5</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="36">
         <v>17</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="35">
         <v>99.5</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="131" t="s">
+      <c r="P27" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="130">
+      <c r="Q27" s="97">
         <v>49.75</v>
       </c>
-      <c r="R27" s="129" t="s">
+      <c r="R27" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S27" s="4" t="s">
@@ -3626,47 +3627,47 @@
     </row>
     <row r="28" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="34">
+      <c r="B28" s="130"/>
+      <c r="C28" s="33">
         <v>4</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="33">
         <v>4</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="29">
         <v>11</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="28">
         <v>5</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="28">
+      <c r="J28" s="27">
         <v>70</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="26">
         <v>12.5</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="25">
         <v>17</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="24">
         <v>99.5</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="50" t="s">
+      <c r="P28" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="49">
+      <c r="Q28" s="46">
         <v>49.75</v>
       </c>
-      <c r="R28" s="48" t="s">
+      <c r="R28" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S28" s="4" t="s">
@@ -3683,7 +3684,7 @@
     </row>
     <row r="29" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="19">
         <v>4</v>
       </c>
@@ -3715,13 +3716,13 @@
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="131" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="129" t="s">
+      <c r="P29" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S29" s="4" t="s">
@@ -3738,49 +3739,49 @@
     </row>
     <row r="30" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="47">
+      <c r="B30" s="129">
         <v>5</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="44">
         <v>5</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="44">
         <v>5</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="40">
         <v>27</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="39">
         <v>2.5</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="40">
+      <c r="J30" s="38">
         <v>60</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="37">
         <v>15</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="36">
         <v>12</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="35">
         <v>87</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="50" t="s">
+      <c r="P30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="Q30" s="49">
+      <c r="Q30" s="46">
         <v>43.5</v>
       </c>
-      <c r="R30" s="48" t="s">
+      <c r="R30" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S30" s="4" t="s">
@@ -3797,47 +3798,47 @@
     </row>
     <row r="31" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="34">
+      <c r="B31" s="130"/>
+      <c r="C31" s="33">
         <v>5</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="33">
         <v>5</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <v>38</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <v>2.5</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="28">
+      <c r="J31" s="27">
         <v>60</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="26">
         <v>15</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="25">
         <v>12</v>
       </c>
-      <c r="M31" s="25">
+      <c r="M31" s="24">
         <v>87</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="131" t="s">
+      <c r="P31" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="Q31" s="130">
+      <c r="Q31" s="97">
         <v>43.5</v>
       </c>
-      <c r="R31" s="129" t="s">
+      <c r="R31" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S31" s="4" t="s">
@@ -3854,7 +3855,7 @@
     </row>
     <row r="32" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="19">
         <v>5</v>
       </c>
@@ -3886,13 +3887,13 @@
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="R32" s="48" t="s">
+      <c r="P32" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S32" s="4" t="s">
@@ -3909,49 +3910,49 @@
     </row>
     <row r="33" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="47">
+      <c r="B33" s="129">
         <v>6</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="44">
         <v>6</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="44">
         <v>6</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="41">
+      <c r="H33" s="39">
         <v>0</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="J33" s="40">
+      <c r="J33" s="38">
         <v>50</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="37">
         <v>15</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="36">
         <v>7</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="35">
         <v>72</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="131" t="s">
+      <c r="P33" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="Q33" s="130">
+      <c r="Q33" s="97">
         <v>36</v>
       </c>
-      <c r="R33" s="129" t="s">
+      <c r="R33" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S33" s="4" t="s">
@@ -3968,47 +3969,47 @@
     </row>
     <row r="34" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="34">
+      <c r="B34" s="130"/>
+      <c r="C34" s="33">
         <v>6</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="33">
         <v>6</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="29">
         <v>18</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="28">
         <v>5</v>
       </c>
       <c r="I34" s="13"/>
-      <c r="J34" s="28">
+      <c r="J34" s="27">
         <v>50</v>
       </c>
-      <c r="K34" s="27">
+      <c r="K34" s="26">
         <v>15</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="25">
         <v>7</v>
       </c>
-      <c r="M34" s="25">
+      <c r="M34" s="24">
         <v>72</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="50" t="s">
+      <c r="P34" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="Q34" s="49">
+      <c r="Q34" s="46">
         <v>36</v>
       </c>
-      <c r="R34" s="48" t="s">
+      <c r="R34" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S34" s="4" t="s">
@@ -4025,7 +4026,7 @@
     </row>
     <row r="35" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="19">
         <v>6</v>
       </c>
@@ -4057,13 +4058,13 @@
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="131" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="R35" s="129" t="s">
+      <c r="P35" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S35" s="4" t="s">
@@ -4080,49 +4081,49 @@
     </row>
     <row r="36" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="47">
+      <c r="B36" s="129">
         <v>7</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="44">
         <v>7</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="44">
         <v>7</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="40">
         <v>33</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H36" s="39">
         <v>2.5</v>
       </c>
       <c r="I36" s="13"/>
-      <c r="J36" s="40">
+      <c r="J36" s="38">
         <v>45</v>
       </c>
-      <c r="K36" s="39">
+      <c r="K36" s="37">
         <v>15</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="36">
         <v>3.5</v>
       </c>
-      <c r="M36" s="37">
+      <c r="M36" s="35">
         <v>63.5</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="50" t="s">
+      <c r="P36" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="Q36" s="49">
+      <c r="Q36" s="46">
         <v>31.75</v>
       </c>
-      <c r="R36" s="48">
+      <c r="R36" s="45">
         <v>22.5</v>
       </c>
       <c r="S36" s="4" t="s">
@@ -4139,47 +4140,47 @@
     </row>
     <row r="37" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="34">
+      <c r="B37" s="130"/>
+      <c r="C37" s="33">
         <v>7</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="33">
         <v>7</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="29">
         <v>66</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="28">
         <v>1</v>
       </c>
       <c r="I37" s="13"/>
-      <c r="J37" s="28">
+      <c r="J37" s="27">
         <v>45</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="26">
         <v>15</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="25">
         <v>3.5</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M37" s="24">
         <v>63.5</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="131" t="s">
+      <c r="P37" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="Q37" s="130">
+      <c r="Q37" s="97">
         <v>31.75</v>
       </c>
-      <c r="R37" s="129">
+      <c r="R37" s="96">
         <v>22.5</v>
       </c>
       <c r="S37" s="4" t="s">
@@ -4196,7 +4197,7 @@
     </row>
     <row r="38" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="19">
         <v>7</v>
       </c>
@@ -4228,13 +4229,13 @@
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="R38" s="48" t="s">
+      <c r="P38" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S38" s="4" t="s">
@@ -4251,49 +4252,49 @@
     </row>
     <row r="39" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="47">
+      <c r="B39" s="129">
         <v>8</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="44">
         <v>8</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="44">
         <v>8</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="40">
         <v>42</v>
       </c>
-      <c r="H39" s="41">
+      <c r="H39" s="39">
         <v>2.5</v>
       </c>
       <c r="I39" s="13"/>
-      <c r="J39" s="40">
+      <c r="J39" s="38">
         <v>40</v>
       </c>
-      <c r="K39" s="39">
+      <c r="K39" s="37">
         <v>12.5</v>
       </c>
-      <c r="L39" s="38">
-        <v>0</v>
-      </c>
-      <c r="M39" s="37">
+      <c r="L39" s="36">
+        <v>0</v>
+      </c>
+      <c r="M39" s="35">
         <v>52.5</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="131" t="s">
+      <c r="P39" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="Q39" s="130">
+      <c r="Q39" s="97">
         <v>26.25</v>
       </c>
-      <c r="R39" s="129" t="s">
+      <c r="R39" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S39" s="4" t="s">
@@ -4310,47 +4311,47 @@
     </row>
     <row r="40" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="34">
+      <c r="B40" s="130"/>
+      <c r="C40" s="33">
         <v>8</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="33">
         <v>8</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="29">
         <v>68</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="28">
         <v>1</v>
       </c>
       <c r="I40" s="13"/>
-      <c r="J40" s="28">
+      <c r="J40" s="27">
         <v>40</v>
       </c>
-      <c r="K40" s="27">
+      <c r="K40" s="26">
         <v>12.5</v>
       </c>
-      <c r="L40" s="26">
-        <v>0</v>
-      </c>
-      <c r="M40" s="25">
+      <c r="L40" s="25">
+        <v>0</v>
+      </c>
+      <c r="M40" s="24">
         <v>52.5</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="50" t="s">
+      <c r="P40" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="Q40" s="49">
+      <c r="Q40" s="46">
         <v>26.25</v>
       </c>
-      <c r="R40" s="48" t="s">
+      <c r="R40" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S40" s="4" t="s">
@@ -4367,7 +4368,7 @@
     </row>
     <row r="41" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="19">
         <v>8</v>
       </c>
@@ -4399,13 +4400,13 @@
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="131" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="R41" s="129" t="s">
+      <c r="P41" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" s="96" t="s">
         <v>1</v>
       </c>
       <c r="S41" s="4" t="s">
@@ -4422,18 +4423,18 @@
     </row>
     <row r="42" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="124"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -4445,29 +4446,29 @@
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="84"/>
-      <c r="H43" s="83" t="s">
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="75"/>
+      <c r="H43" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I43" s="82"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="75"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="150"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="152"/>
       <c r="S43" s="4">
         <v>9</v>
       </c>
@@ -4476,140 +4477,140 @@
     </row>
     <row r="44" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="121" t="s">
+      <c r="B44" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="123" t="s">
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="120" t="s">
+      <c r="F44" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="120" t="s">
+      <c r="G44" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="122" t="s">
+      <c r="H44" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="I44" s="113"/>
-      <c r="J44" s="121" t="s">
+      <c r="I44" s="89"/>
+      <c r="J44" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="K44" s="120" t="s">
+      <c r="K44" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="M44" s="119" t="s">
+      <c r="L44" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="N44" s="79"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="118" t="s">
+      <c r="N44" s="70"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="116"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="155"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="111" t="s">
+      <c r="B45" s="166"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="110"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="107"/>
-      <c r="R45" s="106"/>
+      <c r="L45" s="145"/>
+      <c r="M45" s="148"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="156"/>
+      <c r="Q45" s="157"/>
+      <c r="R45" s="158"/>
       <c r="S45" s="4"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
     </row>
     <row r="46" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="112"/>
-      <c r="K46" s="111" t="s">
+      <c r="B46" s="166"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="162"/>
+      <c r="F46" s="172"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="L46" s="110"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="107"/>
-      <c r="R46" s="106"/>
+      <c r="L46" s="145"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="156"/>
+      <c r="Q46" s="157"/>
+      <c r="R46" s="158"/>
       <c r="S46" s="4"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
     </row>
     <row r="47" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="103"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="102" t="s">
+      <c r="B47" s="167"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="167"/>
+      <c r="K47" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="101"/>
-      <c r="M47" s="100"/>
+      <c r="L47" s="146"/>
+      <c r="M47" s="149"/>
       <c r="N47" s="1"/>
-      <c r="P47" s="99"/>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="97"/>
+      <c r="P47" s="159"/>
+      <c r="Q47" s="160"/>
+      <c r="R47" s="161"/>
     </row>
     <row r="48" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="63"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="54"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="51"/>
       <c r="N48" s="1"/>
-      <c r="P48" s="53" t="s">
+      <c r="P48" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q48" s="52" t="s">
+      <c r="Q48" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="R48" s="51" t="s">
+      <c r="R48" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="V48" s="96" t="s">
+      <c r="V48" s="87" t="s">
         <v>60</v>
       </c>
       <c r="X48" s="2" t="s">
@@ -4617,54 +4618,54 @@
       </c>
     </row>
     <row r="49" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="47">
-        <v>1</v>
-      </c>
-      <c r="C49" s="46">
-        <v>1</v>
-      </c>
-      <c r="D49" s="45">
-        <v>0</v>
-      </c>
-      <c r="E49" s="44" t="s">
+      <c r="B49" s="129">
+        <v>1</v>
+      </c>
+      <c r="C49" s="44">
+        <v>1</v>
+      </c>
+      <c r="D49" s="43">
+        <v>0</v>
+      </c>
+      <c r="E49" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="42">
+      <c r="G49" s="40">
         <v>6</v>
       </c>
-      <c r="H49" s="41">
+      <c r="H49" s="39">
         <v>7.5</v>
       </c>
       <c r="I49" s="13"/>
-      <c r="J49" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M49" s="37">
+      <c r="J49" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="35">
         <v>0</v>
       </c>
       <c r="N49" s="1"/>
-      <c r="P49" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="49">
-        <v>0</v>
-      </c>
-      <c r="R49" s="48" t="s">
+      <c r="P49" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="46">
+        <v>0</v>
+      </c>
+      <c r="R49" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T49" s="36">
+      <c r="T49" s="34">
         <v>15</v>
       </c>
       <c r="U49" s="3" t="s">
@@ -4678,46 +4679,46 @@
       </c>
     </row>
     <row r="50" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="35"/>
-      <c r="C50" s="34">
-        <v>1</v>
-      </c>
-      <c r="D50" s="33">
-        <v>0</v>
-      </c>
-      <c r="E50" s="32" t="s">
+      <c r="B50" s="130"/>
+      <c r="C50" s="33">
+        <v>1</v>
+      </c>
+      <c r="D50" s="32">
+        <v>0</v>
+      </c>
+      <c r="E50" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G50" s="29">
         <v>10</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="28">
         <v>7.5</v>
       </c>
       <c r="I50" s="13"/>
-      <c r="J50" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L50" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M50" s="25">
+      <c r="J50" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="24">
         <v>0</v>
       </c>
       <c r="N50" s="1"/>
-      <c r="P50" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="23">
-        <v>0</v>
-      </c>
-      <c r="R50" s="22" t="s">
+      <c r="P50" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="22">
+        <v>0</v>
+      </c>
+      <c r="R50" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S50" s="4" t="s">
@@ -4733,8 +4734,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:24" s="78" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="20"/>
+    <row r="51" spans="2:24" s="69" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="131"/>
       <c r="C51" s="19">
         <v>1</v>
       </c>
@@ -4785,60 +4786,60 @@
       <c r="V51" s="3">
         <v>15</v>
       </c>
-      <c r="W51" s="95"/>
+      <c r="W51" s="86"/>
       <c r="X51" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="47">
-        <v>2</v>
-      </c>
-      <c r="C52" s="46">
-        <v>2</v>
-      </c>
-      <c r="D52" s="45">
-        <v>0</v>
-      </c>
-      <c r="E52" s="44" t="s">
+      <c r="B52" s="129">
+        <v>2</v>
+      </c>
+      <c r="C52" s="44">
+        <v>2</v>
+      </c>
+      <c r="D52" s="43">
+        <v>0</v>
+      </c>
+      <c r="E52" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H52" s="41">
+      <c r="H52" s="39">
         <v>0</v>
       </c>
       <c r="I52" s="13"/>
-      <c r="J52" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K52" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="L52" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M52" s="37">
+      <c r="J52" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="35">
         <v>0</v>
       </c>
       <c r="N52" s="1"/>
-      <c r="P52" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="23">
-        <v>0</v>
-      </c>
-      <c r="R52" s="22" t="s">
+      <c r="P52" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="22">
+        <v>0</v>
+      </c>
+      <c r="R52" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T52" s="36">
+      <c r="T52" s="34">
         <v>5</v>
       </c>
       <c r="U52" s="3" t="s">
@@ -4852,36 +4853,36 @@
       </c>
     </row>
     <row r="53" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="35"/>
-      <c r="C53" s="34">
-        <v>2</v>
-      </c>
-      <c r="D53" s="33">
-        <v>0</v>
-      </c>
-      <c r="E53" s="32" t="s">
+      <c r="B53" s="130"/>
+      <c r="C53" s="33">
+        <v>2</v>
+      </c>
+      <c r="D53" s="32">
+        <v>0</v>
+      </c>
+      <c r="E53" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="29">
         <v>18</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="28">
         <v>5</v>
       </c>
       <c r="I53" s="13"/>
-      <c r="J53" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L53" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M53" s="25">
+      <c r="J53" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M53" s="24">
         <v>0</v>
       </c>
       <c r="N53" s="1"/>
@@ -4908,7 +4909,7 @@
       </c>
     </row>
     <row r="54" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="20"/>
+      <c r="B54" s="131"/>
       <c r="C54" s="19">
         <v>2</v>
       </c>
@@ -4939,13 +4940,13 @@
         <v>1</v>
       </c>
       <c r="N54" s="1"/>
-      <c r="P54" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="R54" s="22" t="s">
+      <c r="P54" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R54" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S54" s="4" t="s">
@@ -4962,38 +4963,38 @@
       </c>
     </row>
     <row r="55" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="47">
+      <c r="B55" s="129">
         <v>3</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="44">
         <v>3</v>
       </c>
-      <c r="D55" s="45">
-        <v>0</v>
-      </c>
-      <c r="E55" s="44" t="s">
+      <c r="D55" s="43">
+        <v>0</v>
+      </c>
+      <c r="E55" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="42">
+      <c r="G55" s="40">
         <v>27</v>
       </c>
-      <c r="H55" s="41">
+      <c r="H55" s="39">
         <v>2.5</v>
       </c>
       <c r="I55" s="13"/>
-      <c r="J55" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K55" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="L55" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M55" s="37">
+      <c r="J55" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55" s="35">
         <v>0</v>
       </c>
       <c r="N55" s="1"/>
@@ -5009,7 +5010,7 @@
       <c r="S55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T55" s="36">
+      <c r="T55" s="34">
         <v>5</v>
       </c>
       <c r="U55" s="3" t="s">
@@ -5023,46 +5024,46 @@
       </c>
     </row>
     <row r="56" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="35"/>
-      <c r="C56" s="34">
+      <c r="B56" s="130"/>
+      <c r="C56" s="33">
         <v>3</v>
       </c>
-      <c r="D56" s="33">
-        <v>0</v>
-      </c>
-      <c r="E56" s="32" t="s">
+      <c r="D56" s="32">
+        <v>0</v>
+      </c>
+      <c r="E56" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="29">
         <v>38</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="28">
         <v>2.5</v>
       </c>
       <c r="I56" s="13"/>
-      <c r="J56" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L56" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M56" s="25">
+      <c r="J56" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M56" s="24">
         <v>0</v>
       </c>
       <c r="N56" s="1"/>
-      <c r="P56" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="23">
-        <v>0</v>
-      </c>
-      <c r="R56" s="22" t="s">
+      <c r="P56" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="22">
+        <v>0</v>
+      </c>
+      <c r="R56" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S56" s="4" t="s">
@@ -5079,7 +5080,7 @@
       </c>
     </row>
     <row r="57" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="20"/>
+      <c r="B57" s="131"/>
       <c r="C57" s="19">
         <v>3</v>
       </c>
@@ -5133,54 +5134,54 @@
       </c>
     </row>
     <row r="58" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="47">
+      <c r="B58" s="129">
         <v>4</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C58" s="44">
         <v>4</v>
       </c>
-      <c r="D58" s="45">
-        <v>0</v>
-      </c>
-      <c r="E58" s="44" t="s">
+      <c r="D58" s="43">
+        <v>0</v>
+      </c>
+      <c r="E58" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="42">
+      <c r="G58" s="40">
         <v>33</v>
       </c>
-      <c r="H58" s="41">
+      <c r="H58" s="39">
         <v>2.5</v>
       </c>
       <c r="I58" s="13"/>
-      <c r="J58" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K58" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="L58" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M58" s="37">
+      <c r="J58" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M58" s="35">
         <v>0</v>
       </c>
       <c r="N58" s="1"/>
-      <c r="P58" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="23">
-        <v>0</v>
-      </c>
-      <c r="R58" s="22" t="s">
+      <c r="P58" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="22">
+        <v>0</v>
+      </c>
+      <c r="R58" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T58" s="36">
+      <c r="T58" s="34">
         <v>3.5</v>
       </c>
       <c r="U58" s="3" t="s">
@@ -5194,36 +5195,36 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="35"/>
-      <c r="C59" s="34">
+      <c r="B59" s="130"/>
+      <c r="C59" s="33">
         <v>4</v>
       </c>
-      <c r="D59" s="33">
-        <v>0</v>
-      </c>
-      <c r="E59" s="32" t="s">
+      <c r="D59" s="32">
+        <v>0</v>
+      </c>
+      <c r="E59" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G59" s="29">
         <v>66</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="28">
         <v>1</v>
       </c>
       <c r="I59" s="13"/>
-      <c r="J59" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L59" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M59" s="25">
+      <c r="J59" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L59" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59" s="24">
         <v>0</v>
       </c>
       <c r="N59" s="1"/>
@@ -5250,7 +5251,7 @@
       </c>
     </row>
     <row r="60" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="20"/>
+      <c r="B60" s="131"/>
       <c r="C60" s="19">
         <v>4</v>
       </c>
@@ -5281,13 +5282,13 @@
         <v>1</v>
       </c>
       <c r="N60" s="1"/>
-      <c r="P60" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="R60" s="22" t="s">
+      <c r="P60" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R60" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S60" s="4" t="s">
@@ -5304,38 +5305,38 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="47">
+      <c r="B61" s="129">
         <v>5</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C61" s="44">
         <v>5</v>
       </c>
-      <c r="D61" s="45">
+      <c r="D61" s="43">
         <v>9</v>
       </c>
-      <c r="E61" s="44" t="s">
+      <c r="E61" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="42">
+      <c r="G61" s="40">
         <v>28</v>
       </c>
-      <c r="H61" s="41">
+      <c r="H61" s="39">
         <v>2.5</v>
       </c>
       <c r="I61" s="13"/>
-      <c r="J61" s="40">
+      <c r="J61" s="38">
         <v>32.5</v>
       </c>
-      <c r="K61" s="39">
+      <c r="K61" s="37">
         <v>11.5</v>
       </c>
-      <c r="L61" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M61" s="37">
+      <c r="L61" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M61" s="35">
         <v>44</v>
       </c>
       <c r="N61" s="1"/>
@@ -5351,7 +5352,7 @@
       <c r="S61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T61" s="36">
+      <c r="T61" s="34">
         <v>3.5</v>
       </c>
       <c r="U61" s="3" t="s">
@@ -5365,46 +5366,46 @@
       </c>
     </row>
     <row r="62" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="35"/>
-      <c r="C62" s="34">
+      <c r="B62" s="130"/>
+      <c r="C62" s="33">
         <v>5</v>
       </c>
-      <c r="D62" s="33">
+      <c r="D62" s="32">
         <v>9</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E62" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="30">
+      <c r="G62" s="29">
         <v>57</v>
       </c>
-      <c r="H62" s="29">
+      <c r="H62" s="28">
         <v>1</v>
       </c>
       <c r="I62" s="13"/>
-      <c r="J62" s="28">
+      <c r="J62" s="27">
         <v>32.5</v>
       </c>
-      <c r="K62" s="27">
+      <c r="K62" s="26">
         <v>11.5</v>
       </c>
-      <c r="L62" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M62" s="25">
+      <c r="L62" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M62" s="24">
         <v>44</v>
       </c>
       <c r="N62" s="1"/>
-      <c r="P62" s="24" t="s">
+      <c r="P62" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Q62" s="23">
+      <c r="Q62" s="22">
         <v>22</v>
       </c>
-      <c r="R62" s="22" t="s">
+      <c r="R62" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S62" s="4" t="s">
@@ -5421,7 +5422,7 @@
       </c>
     </row>
     <row r="63" spans="2:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="20"/>
+      <c r="B63" s="131"/>
       <c r="C63" s="19">
         <v>5</v>
       </c>
@@ -5475,54 +5476,54 @@
       </c>
     </row>
     <row r="64" spans="2:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="47">
+      <c r="B64" s="129">
         <v>6</v>
       </c>
-      <c r="C64" s="46">
+      <c r="C64" s="44">
         <v>6</v>
       </c>
-      <c r="D64" s="45">
+      <c r="D64" s="43">
         <v>11</v>
       </c>
-      <c r="E64" s="44" t="s">
+      <c r="E64" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="42">
+      <c r="G64" s="40">
         <v>55</v>
       </c>
-      <c r="H64" s="41">
+      <c r="H64" s="39">
         <v>1</v>
       </c>
       <c r="I64" s="13"/>
-      <c r="J64" s="40">
+      <c r="J64" s="38">
         <v>24</v>
       </c>
-      <c r="K64" s="39">
+      <c r="K64" s="37">
         <v>5.5</v>
       </c>
-      <c r="L64" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M64" s="37">
+      <c r="L64" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M64" s="35">
         <v>29.5</v>
       </c>
       <c r="N64" s="1"/>
-      <c r="P64" s="24" t="s">
+      <c r="P64" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Q64" s="23">
+      <c r="Q64" s="22">
         <v>14.75</v>
       </c>
-      <c r="R64" s="22" t="s">
+      <c r="R64" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T64" s="36">
+      <c r="T64" s="34">
         <v>6</v>
       </c>
       <c r="U64" s="3" t="s">
@@ -5536,36 +5537,36 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="35"/>
-      <c r="C65" s="34">
+      <c r="B65" s="130"/>
+      <c r="C65" s="33">
         <v>6</v>
       </c>
-      <c r="D65" s="33">
+      <c r="D65" s="32">
         <v>11</v>
       </c>
-      <c r="E65" s="32" t="s">
+      <c r="E65" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="31" t="s">
+      <c r="F65" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="30">
+      <c r="G65" s="29">
         <v>15</v>
       </c>
-      <c r="H65" s="29">
+      <c r="H65" s="28">
         <v>5</v>
       </c>
       <c r="I65" s="13"/>
-      <c r="J65" s="28">
+      <c r="J65" s="27">
         <v>24</v>
       </c>
-      <c r="K65" s="27">
+      <c r="K65" s="26">
         <v>5.5</v>
       </c>
-      <c r="L65" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M65" s="25">
+      <c r="L65" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M65" s="24">
         <v>29.5</v>
       </c>
       <c r="N65" s="1"/>
@@ -5592,7 +5593,7 @@
       </c>
     </row>
     <row r="66" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="20"/>
+      <c r="B66" s="131"/>
       <c r="C66" s="19">
         <v>6</v>
       </c>
@@ -5623,13 +5624,13 @@
         <v>1</v>
       </c>
       <c r="N66" s="1"/>
-      <c r="P66" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="R66" s="22" t="s">
+      <c r="P66" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R66" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S66" s="4" t="s">
@@ -5646,38 +5647,38 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="47">
+      <c r="B67" s="129">
         <v>7</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C67" s="44">
         <v>7</v>
       </c>
-      <c r="D67" s="45">
+      <c r="D67" s="43">
         <v>13</v>
       </c>
-      <c r="E67" s="44" t="s">
+      <c r="E67" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="42">
+      <c r="G67" s="40">
         <v>60</v>
       </c>
-      <c r="H67" s="41">
+      <c r="H67" s="39">
         <v>1</v>
       </c>
       <c r="I67" s="13"/>
-      <c r="J67" s="40">
+      <c r="J67" s="38">
         <v>19</v>
       </c>
-      <c r="K67" s="39">
+      <c r="K67" s="37">
         <v>3.5</v>
       </c>
-      <c r="L67" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M67" s="37">
+      <c r="L67" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M67" s="35">
         <v>22.5</v>
       </c>
       <c r="N67" s="1"/>
@@ -5693,7 +5694,7 @@
       <c r="S67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T67" s="36">
+      <c r="T67" s="34">
         <v>2</v>
       </c>
       <c r="U67" s="3" t="s">
@@ -5707,46 +5708,46 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="35"/>
-      <c r="C68" s="34">
+      <c r="B68" s="130"/>
+      <c r="C68" s="33">
         <v>7</v>
       </c>
-      <c r="D68" s="33">
+      <c r="D68" s="32">
         <v>13</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="31" t="s">
+      <c r="F68" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="29">
         <v>98</v>
       </c>
-      <c r="H68" s="29">
+      <c r="H68" s="28">
         <v>1</v>
       </c>
       <c r="I68" s="13"/>
-      <c r="J68" s="28">
+      <c r="J68" s="27">
         <v>19</v>
       </c>
-      <c r="K68" s="27">
+      <c r="K68" s="26">
         <v>3.5</v>
       </c>
-      <c r="L68" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M68" s="25">
+      <c r="L68" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M68" s="24">
         <v>22.5</v>
       </c>
       <c r="N68" s="1"/>
-      <c r="P68" s="24" t="s">
+      <c r="P68" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="Q68" s="23">
+      <c r="Q68" s="22">
         <v>11.25</v>
       </c>
-      <c r="R68" s="22">
+      <c r="R68" s="21">
         <v>9.5</v>
       </c>
       <c r="S68" s="4" t="s">
@@ -5763,7 +5764,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="20"/>
+      <c r="B69" s="131"/>
       <c r="C69" s="19">
         <v>7</v>
       </c>
@@ -5817,54 +5818,54 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="47">
+      <c r="B70" s="129">
         <v>8</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="44">
         <v>8</v>
       </c>
-      <c r="D70" s="45">
+      <c r="D70" s="43">
         <v>15</v>
       </c>
-      <c r="E70" s="44" t="s">
+      <c r="E70" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="43" t="s">
+      <c r="F70" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="42">
+      <c r="G70" s="40">
         <v>47</v>
       </c>
-      <c r="H70" s="41">
+      <c r="H70" s="39">
         <v>2.5</v>
       </c>
       <c r="I70" s="13"/>
-      <c r="J70" s="40">
+      <c r="J70" s="38">
         <v>15</v>
       </c>
-      <c r="K70" s="39">
+      <c r="K70" s="37">
         <v>0.5</v>
       </c>
-      <c r="L70" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M70" s="37">
+      <c r="L70" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M70" s="35">
         <v>15.5</v>
       </c>
       <c r="N70" s="1"/>
-      <c r="P70" s="24" t="s">
+      <c r="P70" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q70" s="23">
+      <c r="Q70" s="22">
         <v>7.75</v>
       </c>
-      <c r="R70" s="22" t="s">
+      <c r="R70" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S70" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T70" s="36">
+      <c r="T70" s="34">
         <v>3</v>
       </c>
       <c r="U70" s="3" t="s">
@@ -5878,36 +5879,36 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="35"/>
-      <c r="C71" s="34">
+      <c r="B71" s="130"/>
+      <c r="C71" s="33">
         <v>8</v>
       </c>
-      <c r="D71" s="33">
+      <c r="D71" s="32">
         <v>15</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F71" s="31" t="s">
+      <c r="F71" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="30">
+      <c r="G71" s="29">
         <v>103</v>
       </c>
-      <c r="H71" s="29">
+      <c r="H71" s="28">
         <v>0.5</v>
       </c>
       <c r="I71" s="13"/>
-      <c r="J71" s="28">
+      <c r="J71" s="27">
         <v>15</v>
       </c>
-      <c r="K71" s="27">
+      <c r="K71" s="26">
         <v>0.5</v>
       </c>
-      <c r="L71" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M71" s="25">
+      <c r="L71" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M71" s="24">
         <v>15.5</v>
       </c>
       <c r="N71" s="1"/>
@@ -5934,7 +5935,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="20"/>
+      <c r="B72" s="131"/>
       <c r="C72" s="19">
         <v>8</v>
       </c>
@@ -5965,13 +5966,13 @@
         <v>1</v>
       </c>
       <c r="N72" s="1"/>
-      <c r="P72" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="R72" s="22" t="s">
+      <c r="P72" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R72" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S72" s="4" t="s">
@@ -5988,38 +5989,38 @@
       </c>
     </row>
     <row r="73" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="47">
+      <c r="B73" s="129">
         <v>9</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C73" s="44">
         <v>9</v>
       </c>
-      <c r="D73" s="45">
+      <c r="D73" s="43">
         <v>17</v>
       </c>
-      <c r="E73" s="44" t="s">
+      <c r="E73" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F73" s="43" t="s">
+      <c r="F73" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="42">
+      <c r="G73" s="40">
         <v>101</v>
       </c>
-      <c r="H73" s="41">
+      <c r="H73" s="39">
         <v>0.5</v>
       </c>
       <c r="I73" s="13"/>
-      <c r="J73" s="40">
+      <c r="J73" s="38">
         <v>12.5</v>
       </c>
-      <c r="K73" s="39">
-        <v>0</v>
-      </c>
-      <c r="L73" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M73" s="37">
+      <c r="K73" s="37">
+        <v>0</v>
+      </c>
+      <c r="L73" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M73" s="35">
         <v>12.5</v>
       </c>
       <c r="N73" s="1"/>
@@ -6035,7 +6036,7 @@
       <c r="S73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T73" s="36">
+      <c r="T73" s="34">
         <v>0.5</v>
       </c>
       <c r="U73" s="3" t="s">
@@ -6049,46 +6050,46 @@
       </c>
     </row>
     <row r="74" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="35"/>
-      <c r="C74" s="34">
+      <c r="B74" s="130"/>
+      <c r="C74" s="33">
         <v>9</v>
       </c>
-      <c r="D74" s="33">
+      <c r="D74" s="32">
         <v>17</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F74" s="31" t="s">
+      <c r="F74" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="30">
+      <c r="G74" s="29">
         <v>266</v>
       </c>
-      <c r="H74" s="29">
+      <c r="H74" s="28">
         <v>0</v>
       </c>
       <c r="I74" s="13"/>
-      <c r="J74" s="28">
+      <c r="J74" s="27">
         <v>12.5</v>
       </c>
-      <c r="K74" s="27">
-        <v>0</v>
-      </c>
-      <c r="L74" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M74" s="25">
+      <c r="K74" s="26">
+        <v>0</v>
+      </c>
+      <c r="L74" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M74" s="24">
         <v>12.5</v>
       </c>
       <c r="N74" s="1"/>
-      <c r="P74" s="24" t="s">
+      <c r="P74" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Q74" s="23">
+      <c r="Q74" s="22">
         <v>6.25</v>
       </c>
-      <c r="R74" s="22" t="s">
+      <c r="R74" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S74" s="4" t="s">
@@ -6105,7 +6106,7 @@
       </c>
     </row>
     <row r="75" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="20"/>
+      <c r="B75" s="131"/>
       <c r="C75" s="19">
         <v>9</v>
       </c>
@@ -6159,167 +6160,167 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="94"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="94"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="92"/>
-      <c r="I76" s="91"/>
-      <c r="J76" s="90"/>
-      <c r="K76" s="89"/>
-      <c r="L76" s="89"/>
-      <c r="M76" s="89"/>
-      <c r="N76" s="88"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="81"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="80"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
     </row>
     <row r="77" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="87" t="s">
+      <c r="A77" s="20"/>
+      <c r="B77" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="84"/>
-      <c r="H77" s="83" t="s">
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="75"/>
+      <c r="H77" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="I77" s="82"/>
-      <c r="J77" s="81"/>
-      <c r="K77" s="81"/>
-      <c r="L77" s="81"/>
-      <c r="M77" s="80"/>
-      <c r="N77" s="79"/>
-      <c r="O77" s="78"/>
-      <c r="P77" s="77"/>
-      <c r="Q77" s="76"/>
-      <c r="R77" s="75"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="70"/>
+      <c r="O77" s="69"/>
+      <c r="P77" s="150"/>
+      <c r="Q77" s="151"/>
+      <c r="R77" s="152"/>
       <c r="S77" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="74" t="s">
+      <c r="A78" s="20"/>
+      <c r="B78" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="73"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="72" t="s">
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F78" s="71" t="s">
+      <c r="F78" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="G78" s="71" t="s">
+      <c r="G78" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="H78" s="70" t="s">
+      <c r="H78" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="I78" s="58"/>
-      <c r="J78" s="69" t="s">
+      <c r="I78" s="55"/>
+      <c r="J78" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K78" s="68" t="s">
+      <c r="K78" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="L78" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="M78" s="67" t="s">
+      <c r="L78" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="M78" s="61" t="s">
         <v>29</v>
       </c>
       <c r="N78" s="1"/>
-      <c r="P78" s="66" t="s">
+      <c r="P78" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="Q78" s="65"/>
-      <c r="R78" s="64"/>
+      <c r="Q78" s="169"/>
+      <c r="R78" s="170"/>
     </row>
     <row r="79" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="54"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="52"/>
+      <c r="M79" s="51"/>
       <c r="N79" s="1"/>
-      <c r="P79" s="53" t="s">
+      <c r="P79" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q79" s="52" t="s">
+      <c r="Q79" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="R79" s="51" t="s">
+      <c r="R79" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="47">
-        <v>1</v>
-      </c>
-      <c r="C80" s="46">
-        <v>1</v>
-      </c>
-      <c r="D80" s="45">
-        <v>0</v>
-      </c>
-      <c r="E80" s="44" t="s">
+      <c r="A80" s="20"/>
+      <c r="B80" s="129">
+        <v>1</v>
+      </c>
+      <c r="C80" s="44">
+        <v>1</v>
+      </c>
+      <c r="D80" s="43">
+        <v>0</v>
+      </c>
+      <c r="E80" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F80" s="43" t="s">
+      <c r="F80" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G80" s="42">
+      <c r="G80" s="40">
         <v>9</v>
       </c>
-      <c r="H80" s="41">
+      <c r="H80" s="39">
         <v>7.5</v>
       </c>
       <c r="I80" s="13"/>
-      <c r="J80" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K80" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="L80" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M80" s="37">
+      <c r="J80" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L80" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M80" s="35">
         <v>0</v>
       </c>
       <c r="N80" s="1"/>
-      <c r="P80" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="49">
-        <v>0</v>
-      </c>
-      <c r="R80" s="48" t="s">
+      <c r="P80" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="46">
+        <v>0</v>
+      </c>
+      <c r="R80" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S80" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T80" s="36">
+      <c r="T80" s="34">
         <v>10</v>
       </c>
       <c r="U80" s="3" t="s">
@@ -6333,47 +6334,47 @@
       </c>
     </row>
     <row r="81" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="34">
-        <v>1</v>
-      </c>
-      <c r="D81" s="33">
-        <v>0</v>
-      </c>
-      <c r="E81" s="32" t="s">
+      <c r="A81" s="20"/>
+      <c r="B81" s="130"/>
+      <c r="C81" s="33">
+        <v>1</v>
+      </c>
+      <c r="D81" s="32">
+        <v>0</v>
+      </c>
+      <c r="E81" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="30">
+      <c r="G81" s="29">
         <v>48</v>
       </c>
-      <c r="H81" s="29">
+      <c r="H81" s="28">
         <v>2.5</v>
       </c>
       <c r="I81" s="13"/>
-      <c r="J81" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K81" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L81" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M81" s="25">
+      <c r="J81" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K81" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L81" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M81" s="24">
         <v>0</v>
       </c>
       <c r="N81" s="1"/>
-      <c r="P81" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="23">
-        <v>0</v>
-      </c>
-      <c r="R81" s="22" t="s">
+      <c r="P81" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="22">
+        <v>0</v>
+      </c>
+      <c r="R81" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S81" s="4" t="s">
@@ -6390,8 +6391,8 @@
       </c>
     </row>
     <row r="82" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="131"/>
       <c r="C82" s="19">
         <v>1</v>
       </c>
@@ -6445,55 +6446,55 @@
       </c>
     </row>
     <row r="83" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="47">
-        <v>2</v>
-      </c>
-      <c r="C83" s="46">
-        <v>2</v>
-      </c>
-      <c r="D83" s="45">
-        <v>0</v>
-      </c>
-      <c r="E83" s="44" t="s">
+      <c r="A83" s="20"/>
+      <c r="B83" s="129">
+        <v>2</v>
+      </c>
+      <c r="C83" s="44">
+        <v>2</v>
+      </c>
+      <c r="D83" s="43">
+        <v>0</v>
+      </c>
+      <c r="E83" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="42">
+      <c r="G83" s="40">
         <v>19</v>
       </c>
-      <c r="H83" s="41">
+      <c r="H83" s="39">
         <v>5</v>
       </c>
       <c r="I83" s="13"/>
-      <c r="J83" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K83" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="L83" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M83" s="37">
+      <c r="J83" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K83" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L83" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M83" s="35">
         <v>0</v>
       </c>
       <c r="N83" s="1"/>
-      <c r="P83" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="23">
-        <v>0</v>
-      </c>
-      <c r="R83" s="22" t="s">
+      <c r="P83" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="22">
+        <v>0</v>
+      </c>
+      <c r="R83" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S83" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T83" s="36">
+      <c r="T83" s="34">
         <v>7.5</v>
       </c>
       <c r="U83" s="3" t="s">
@@ -6507,37 +6508,37 @@
       </c>
     </row>
     <row r="84" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="34">
-        <v>2</v>
-      </c>
-      <c r="D84" s="33">
-        <v>0</v>
-      </c>
-      <c r="E84" s="32" t="s">
+      <c r="A84" s="20"/>
+      <c r="B84" s="130"/>
+      <c r="C84" s="33">
+        <v>2</v>
+      </c>
+      <c r="D84" s="32">
+        <v>0</v>
+      </c>
+      <c r="E84" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F84" s="31" t="s">
+      <c r="F84" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="30">
+      <c r="G84" s="29">
         <v>22</v>
       </c>
-      <c r="H84" s="29">
+      <c r="H84" s="28">
         <v>2.5</v>
       </c>
       <c r="I84" s="13"/>
-      <c r="J84" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K84" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L84" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M84" s="25">
+      <c r="J84" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K84" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L84" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M84" s="24">
         <v>0</v>
       </c>
       <c r="N84" s="1"/>
@@ -6564,8 +6565,8 @@
       </c>
     </row>
     <row r="85" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="131"/>
       <c r="C85" s="19">
         <v>2</v>
       </c>
@@ -6596,13 +6597,13 @@
         <v>1</v>
       </c>
       <c r="N85" s="1"/>
-      <c r="P85" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="R85" s="22" t="s">
+      <c r="P85" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R85" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S85" s="4" t="s">
@@ -6619,39 +6620,39 @@
       </c>
     </row>
     <row r="86" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="47">
+      <c r="A86" s="20"/>
+      <c r="B86" s="129">
         <v>3</v>
       </c>
-      <c r="C86" s="46">
+      <c r="C86" s="44">
         <v>3</v>
       </c>
-      <c r="D86" s="45">
-        <v>0</v>
-      </c>
-      <c r="E86" s="44" t="s">
+      <c r="D86" s="43">
+        <v>0</v>
+      </c>
+      <c r="E86" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F86" s="43" t="s">
+      <c r="F86" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G86" s="42">
+      <c r="G86" s="40">
         <v>11</v>
       </c>
-      <c r="H86" s="41">
+      <c r="H86" s="39">
         <v>5</v>
       </c>
       <c r="I86" s="13"/>
-      <c r="J86" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K86" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="L86" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M86" s="37">
+      <c r="J86" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K86" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L86" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M86" s="35">
         <v>0</v>
       </c>
       <c r="N86" s="1"/>
@@ -6667,7 +6668,7 @@
       <c r="S86" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T86" s="36">
+      <c r="T86" s="34">
         <v>5.5</v>
       </c>
       <c r="U86" s="3" t="s">
@@ -6681,47 +6682,47 @@
       </c>
     </row>
     <row r="87" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="34">
+      <c r="A87" s="20"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="33">
         <v>3</v>
       </c>
-      <c r="D87" s="33">
-        <v>0</v>
-      </c>
-      <c r="E87" s="32" t="s">
+      <c r="D87" s="32">
+        <v>0</v>
+      </c>
+      <c r="E87" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G87" s="30">
+      <c r="G87" s="29">
         <v>184</v>
       </c>
-      <c r="H87" s="29">
+      <c r="H87" s="28">
         <v>0.5</v>
       </c>
       <c r="I87" s="13"/>
-      <c r="J87" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K87" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L87" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M87" s="25">
+      <c r="J87" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L87" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M87" s="24">
         <v>0</v>
       </c>
       <c r="N87" s="1"/>
-      <c r="P87" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="23">
-        <v>0</v>
-      </c>
-      <c r="R87" s="22" t="s">
+      <c r="P87" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="22">
+        <v>0</v>
+      </c>
+      <c r="R87" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S87" s="4" t="s">
@@ -6738,8 +6739,8 @@
       </c>
     </row>
     <row r="88" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="131"/>
       <c r="C88" s="19">
         <v>3</v>
       </c>
@@ -6793,55 +6794,55 @@
       </c>
     </row>
     <row r="89" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
-      <c r="B89" s="47">
+      <c r="A89" s="20"/>
+      <c r="B89" s="129">
         <v>4</v>
       </c>
-      <c r="C89" s="46">
+      <c r="C89" s="44">
         <v>4</v>
       </c>
-      <c r="D89" s="45">
-        <v>0</v>
-      </c>
-      <c r="E89" s="44" t="s">
+      <c r="D89" s="43">
+        <v>0</v>
+      </c>
+      <c r="E89" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F89" s="43" t="s">
+      <c r="F89" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="42">
+      <c r="G89" s="40">
         <v>42</v>
       </c>
-      <c r="H89" s="41">
+      <c r="H89" s="39">
         <v>2.5</v>
       </c>
       <c r="I89" s="13"/>
-      <c r="J89" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K89" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="L89" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M89" s="37">
+      <c r="J89" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K89" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L89" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M89" s="35">
         <v>0</v>
       </c>
       <c r="N89" s="1"/>
-      <c r="P89" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="23">
-        <v>0</v>
-      </c>
-      <c r="R89" s="22" t="s">
+      <c r="P89" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="22">
+        <v>0</v>
+      </c>
+      <c r="R89" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S89" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T89" s="36">
+      <c r="T89" s="34">
         <v>3.5</v>
       </c>
       <c r="U89" s="3" t="s">
@@ -6855,37 +6856,37 @@
       </c>
     </row>
     <row r="90" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="21"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="34">
+      <c r="A90" s="20"/>
+      <c r="B90" s="130"/>
+      <c r="C90" s="33">
         <v>4</v>
       </c>
-      <c r="D90" s="33">
-        <v>0</v>
-      </c>
-      <c r="E90" s="32" t="s">
+      <c r="D90" s="32">
+        <v>0</v>
+      </c>
+      <c r="E90" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="31" t="s">
+      <c r="F90" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G90" s="30">
+      <c r="G90" s="29">
         <v>68</v>
       </c>
-      <c r="H90" s="29">
+      <c r="H90" s="28">
         <v>1</v>
       </c>
       <c r="I90" s="13"/>
-      <c r="J90" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K90" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L90" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M90" s="25">
+      <c r="J90" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L90" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M90" s="24">
         <v>0</v>
       </c>
       <c r="N90" s="1"/>
@@ -6912,8 +6913,8 @@
       </c>
     </row>
     <row r="91" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="131"/>
       <c r="C91" s="19">
         <v>4</v>
       </c>
@@ -6944,13 +6945,13 @@
         <v>1</v>
       </c>
       <c r="N91" s="1"/>
-      <c r="P91" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="R91" s="22" t="s">
+      <c r="P91" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R91" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S91" s="4" t="s">
@@ -6967,39 +6968,39 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="21"/>
-      <c r="B92" s="47">
+      <c r="A92" s="20"/>
+      <c r="B92" s="129">
         <v>5</v>
       </c>
-      <c r="C92" s="46">
+      <c r="C92" s="44">
         <v>5</v>
       </c>
-      <c r="D92" s="45">
+      <c r="D92" s="43">
         <v>9</v>
       </c>
-      <c r="E92" s="44" t="s">
+      <c r="E92" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F92" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G92" s="42">
+      <c r="G92" s="40">
         <v>89</v>
       </c>
-      <c r="H92" s="41">
+      <c r="H92" s="39">
         <v>1</v>
       </c>
       <c r="I92" s="13"/>
-      <c r="J92" s="40">
+      <c r="J92" s="38">
         <v>32.5</v>
       </c>
-      <c r="K92" s="39">
+      <c r="K92" s="37">
         <v>10.5</v>
       </c>
-      <c r="L92" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M92" s="37">
+      <c r="L92" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M92" s="35">
         <v>43</v>
       </c>
       <c r="N92" s="1"/>
@@ -7015,7 +7016,7 @@
       <c r="S92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T92" s="36">
+      <c r="T92" s="34">
         <v>2</v>
       </c>
       <c r="U92" s="3" t="s">
@@ -7029,47 +7030,47 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="21"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="34">
+      <c r="A93" s="20"/>
+      <c r="B93" s="130"/>
+      <c r="C93" s="33">
         <v>5</v>
       </c>
-      <c r="D93" s="33">
+      <c r="D93" s="32">
         <v>9</v>
       </c>
-      <c r="E93" s="32" t="s">
+      <c r="E93" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="31" t="s">
+      <c r="F93" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G93" s="30">
+      <c r="G93" s="29">
         <v>58</v>
       </c>
-      <c r="H93" s="29">
+      <c r="H93" s="28">
         <v>1</v>
       </c>
       <c r="I93" s="13"/>
-      <c r="J93" s="28">
+      <c r="J93" s="27">
         <v>32.5</v>
       </c>
-      <c r="K93" s="27">
+      <c r="K93" s="26">
         <v>10.5</v>
       </c>
-      <c r="L93" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M93" s="25">
+      <c r="L93" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M93" s="24">
         <v>43</v>
       </c>
       <c r="N93" s="1"/>
-      <c r="P93" s="24" t="s">
+      <c r="P93" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q93" s="23">
+      <c r="Q93" s="22">
         <v>21.5</v>
       </c>
-      <c r="R93" s="22" t="s">
+      <c r="R93" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S93" s="4" t="s">
@@ -7086,8 +7087,8 @@
       </c>
     </row>
     <row r="94" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="131"/>
       <c r="C94" s="19">
         <v>5</v>
       </c>
@@ -7141,55 +7142,55 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="21"/>
-      <c r="B95" s="47">
+      <c r="A95" s="20"/>
+      <c r="B95" s="129">
         <v>6</v>
       </c>
-      <c r="C95" s="46">
+      <c r="C95" s="44">
         <v>6</v>
       </c>
-      <c r="D95" s="45">
+      <c r="D95" s="43">
         <v>11</v>
       </c>
-      <c r="E95" s="44" t="s">
+      <c r="E95" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="43" t="s">
+      <c r="F95" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="42">
+      <c r="G95" s="40">
         <v>39</v>
       </c>
-      <c r="H95" s="41">
+      <c r="H95" s="39">
         <v>2.5</v>
       </c>
       <c r="I95" s="13"/>
-      <c r="J95" s="40">
+      <c r="J95" s="38">
         <v>24</v>
       </c>
-      <c r="K95" s="39">
+      <c r="K95" s="37">
         <v>7</v>
       </c>
-      <c r="L95" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M95" s="37">
+      <c r="L95" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M95" s="35">
         <v>31</v>
       </c>
       <c r="N95" s="1"/>
-      <c r="P95" s="24" t="s">
+      <c r="P95" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q95" s="23">
+      <c r="Q95" s="22">
         <v>15.5</v>
       </c>
-      <c r="R95" s="22" t="s">
+      <c r="R95" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T95" s="36">
+      <c r="T95" s="34">
         <v>3.5</v>
       </c>
       <c r="U95" s="3" t="s">
@@ -7203,37 +7204,37 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="21"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="34">
+      <c r="A96" s="20"/>
+      <c r="B96" s="130"/>
+      <c r="C96" s="33">
         <v>6</v>
       </c>
-      <c r="D96" s="33">
+      <c r="D96" s="32">
         <v>11</v>
       </c>
-      <c r="E96" s="32" t="s">
+      <c r="E96" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="31" t="s">
+      <c r="F96" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G96" s="30">
+      <c r="G96" s="29">
         <v>63</v>
       </c>
-      <c r="H96" s="29">
+      <c r="H96" s="28">
         <v>1</v>
       </c>
       <c r="I96" s="13"/>
-      <c r="J96" s="28">
+      <c r="J96" s="27">
         <v>24</v>
       </c>
-      <c r="K96" s="27">
+      <c r="K96" s="26">
         <v>7</v>
       </c>
-      <c r="L96" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M96" s="25">
+      <c r="L96" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M96" s="24">
         <v>31</v>
       </c>
       <c r="N96" s="1"/>
@@ -7260,8 +7261,8 @@
       </c>
     </row>
     <row r="97" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="131"/>
       <c r="C97" s="19">
         <v>6</v>
       </c>
@@ -7292,13 +7293,13 @@
         <v>1</v>
       </c>
       <c r="N97" s="1"/>
-      <c r="P97" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="R97" s="22" t="s">
+      <c r="P97" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R97" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S97" s="4" t="s">
@@ -7315,39 +7316,39 @@
       </c>
     </row>
     <row r="98" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="21"/>
-      <c r="B98" s="47">
+      <c r="A98" s="20"/>
+      <c r="B98" s="129">
         <v>7</v>
       </c>
-      <c r="C98" s="46">
+      <c r="C98" s="44">
         <v>7</v>
       </c>
-      <c r="D98" s="45">
+      <c r="D98" s="43">
         <v>13</v>
       </c>
-      <c r="E98" s="44" t="s">
+      <c r="E98" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="43" t="s">
+      <c r="F98" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G98" s="42">
+      <c r="G98" s="40">
         <v>35</v>
       </c>
-      <c r="H98" s="41">
+      <c r="H98" s="39">
         <v>2.5</v>
       </c>
       <c r="I98" s="13"/>
-      <c r="J98" s="40">
+      <c r="J98" s="38">
         <v>19</v>
       </c>
-      <c r="K98" s="39">
+      <c r="K98" s="37">
         <v>3.5</v>
       </c>
-      <c r="L98" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M98" s="37">
+      <c r="L98" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M98" s="35">
         <v>22.5</v>
       </c>
       <c r="N98" s="1"/>
@@ -7363,7 +7364,7 @@
       <c r="S98" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T98" s="36">
+      <c r="T98" s="34">
         <v>3.5</v>
       </c>
       <c r="U98" s="3" t="s">
@@ -7377,47 +7378,47 @@
       </c>
     </row>
     <row r="99" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="21"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="34">
+      <c r="A99" s="20"/>
+      <c r="B99" s="130"/>
+      <c r="C99" s="33">
         <v>7</v>
       </c>
-      <c r="D99" s="33">
+      <c r="D99" s="32">
         <v>13</v>
       </c>
-      <c r="E99" s="32" t="s">
+      <c r="E99" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="31" t="s">
+      <c r="F99" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="30">
+      <c r="G99" s="29">
         <v>51</v>
       </c>
-      <c r="H99" s="29">
+      <c r="H99" s="28">
         <v>1</v>
       </c>
       <c r="I99" s="13"/>
-      <c r="J99" s="28">
+      <c r="J99" s="27">
         <v>19</v>
       </c>
-      <c r="K99" s="27">
+      <c r="K99" s="26">
         <v>3.5</v>
       </c>
-      <c r="L99" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M99" s="25">
+      <c r="L99" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M99" s="24">
         <v>22.5</v>
       </c>
       <c r="N99" s="1"/>
-      <c r="P99" s="24" t="s">
+      <c r="P99" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Q99" s="23">
+      <c r="Q99" s="22">
         <v>11.25</v>
       </c>
-      <c r="R99" s="22" t="s">
+      <c r="R99" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S99" s="4" t="s">
@@ -7434,8 +7435,8 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="B100" s="20"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="131"/>
       <c r="C100" s="19">
         <v>7</v>
       </c>
@@ -7489,55 +7490,55 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="21"/>
-      <c r="B101" s="47">
+      <c r="A101" s="20"/>
+      <c r="B101" s="129">
         <v>8</v>
       </c>
-      <c r="C101" s="46">
+      <c r="C101" s="44">
         <v>8</v>
       </c>
-      <c r="D101" s="45">
+      <c r="D101" s="43">
         <v>15</v>
       </c>
-      <c r="E101" s="44" t="s">
+      <c r="E101" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="43" t="s">
+      <c r="F101" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="42">
+      <c r="G101" s="40">
         <v>32</v>
       </c>
-      <c r="H101" s="41">
+      <c r="H101" s="39">
         <v>2.5</v>
       </c>
       <c r="I101" s="13"/>
-      <c r="J101" s="40">
+      <c r="J101" s="38">
         <v>15</v>
       </c>
-      <c r="K101" s="39">
-        <v>0</v>
-      </c>
-      <c r="L101" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M101" s="37">
+      <c r="K101" s="37">
+        <v>0</v>
+      </c>
+      <c r="L101" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M101" s="35">
         <v>15</v>
       </c>
       <c r="N101" s="1"/>
-      <c r="P101" s="24" t="s">
+      <c r="P101" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Q101" s="23">
+      <c r="Q101" s="22">
         <v>7.5</v>
       </c>
-      <c r="R101" s="22" t="s">
+      <c r="R101" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S101" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T101" s="36">
+      <c r="T101" s="34">
         <v>3.5</v>
       </c>
       <c r="U101" s="3" t="s">
@@ -7551,37 +7552,37 @@
       </c>
     </row>
     <row r="102" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="21"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="34">
+      <c r="A102" s="20"/>
+      <c r="B102" s="130"/>
+      <c r="C102" s="33">
         <v>8</v>
       </c>
-      <c r="D102" s="33">
+      <c r="D102" s="32">
         <v>15</v>
       </c>
-      <c r="E102" s="32" t="s">
+      <c r="E102" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F102" s="31" t="s">
+      <c r="F102" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G102" s="30">
+      <c r="G102" s="29">
         <v>65</v>
       </c>
-      <c r="H102" s="29">
+      <c r="H102" s="28">
         <v>1</v>
       </c>
       <c r="I102" s="13"/>
-      <c r="J102" s="28">
+      <c r="J102" s="27">
         <v>15</v>
       </c>
-      <c r="K102" s="27">
-        <v>0</v>
-      </c>
-      <c r="L102" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M102" s="25">
+      <c r="K102" s="26">
+        <v>0</v>
+      </c>
+      <c r="L102" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M102" s="24">
         <v>15</v>
       </c>
       <c r="N102" s="1"/>
@@ -7608,8 +7609,8 @@
       </c>
     </row>
     <row r="103" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="131"/>
       <c r="C103" s="19">
         <v>8</v>
       </c>
@@ -7640,13 +7641,13 @@
         <v>1</v>
       </c>
       <c r="N103" s="1"/>
-      <c r="P103" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="R103" s="22" t="s">
+      <c r="P103" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R103" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S103" s="4" t="s">
@@ -7663,39 +7664,39 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="21"/>
-      <c r="B104" s="47">
+      <c r="A104" s="20"/>
+      <c r="B104" s="129">
         <v>9</v>
       </c>
-      <c r="C104" s="46">
+      <c r="C104" s="44">
         <v>9</v>
       </c>
-      <c r="D104" s="45">
+      <c r="D104" s="43">
         <v>17</v>
       </c>
-      <c r="E104" s="44" t="s">
+      <c r="E104" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F104" s="43" t="s">
+      <c r="F104" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G104" s="42">
+      <c r="G104" s="40">
         <v>276</v>
       </c>
-      <c r="H104" s="41">
+      <c r="H104" s="39">
         <v>0</v>
       </c>
       <c r="I104" s="13"/>
-      <c r="J104" s="40">
+      <c r="J104" s="38">
         <v>12.5</v>
       </c>
-      <c r="K104" s="39">
-        <v>0</v>
-      </c>
-      <c r="L104" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M104" s="37">
+      <c r="K104" s="37">
+        <v>0</v>
+      </c>
+      <c r="L104" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M104" s="35">
         <v>12.5</v>
       </c>
       <c r="N104" s="1"/>
@@ -7711,7 +7712,7 @@
       <c r="S104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T104" s="36">
+      <c r="T104" s="34">
         <v>0</v>
       </c>
       <c r="U104" s="3" t="s">
@@ -7725,47 +7726,47 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="21"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="34">
+      <c r="A105" s="20"/>
+      <c r="B105" s="130"/>
+      <c r="C105" s="33">
         <v>9</v>
       </c>
-      <c r="D105" s="33">
+      <c r="D105" s="32">
         <v>17</v>
       </c>
-      <c r="E105" s="32" t="s">
+      <c r="E105" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="F105" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="30">
+      <c r="G105" s="29">
         <v>382</v>
       </c>
-      <c r="H105" s="29">
+      <c r="H105" s="28">
         <v>0</v>
       </c>
       <c r="I105" s="13"/>
-      <c r="J105" s="28">
+      <c r="J105" s="27">
         <v>12.5</v>
       </c>
-      <c r="K105" s="27">
-        <v>0</v>
-      </c>
-      <c r="L105" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="M105" s="25">
+      <c r="K105" s="26">
+        <v>0</v>
+      </c>
+      <c r="L105" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M105" s="24">
         <v>12.5</v>
       </c>
       <c r="N105" s="1"/>
-      <c r="P105" s="24" t="s">
+      <c r="P105" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="23">
+      <c r="Q105" s="22">
         <v>6.25</v>
       </c>
-      <c r="R105" s="22" t="s">
+      <c r="R105" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S105" s="4" t="s">
@@ -7782,8 +7783,8 @@
       </c>
     </row>
     <row r="106" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
-      <c r="B106" s="20"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="131"/>
       <c r="C106" s="19">
         <v>9</v>
       </c>
@@ -7838,27 +7839,31 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="B80:B82"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="P16:R16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
     <mergeCell ref="L44:L47"/>
     <mergeCell ref="M44:M47"/>
     <mergeCell ref="P43:R43"/>
@@ -7868,33 +7873,29 @@
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="P44:R47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
     <mergeCell ref="G44:G47"/>
     <mergeCell ref="H44:H47"/>
     <mergeCell ref="J44:J47"/>
     <mergeCell ref="K44:K47"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="P18:R41 P49:R75 P80:R106">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -7902,34 +7903,34 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Categories</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F43 F77">
+    <dataValidation type="list" allowBlank="1" sqref="F43 F77" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I43:I46 H43 H77:I77 I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I43:I46 H43 H77:I77 I15" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B77 B15 B43">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B77 B15 B43" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E80:E106 E18:E41 E49:E75">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E80:E106 E18:E41 E49:E75" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>Pools</formula1>
     </dataValidation>
   </dataValidations>
